--- a/biology/Histoire de la zoologie et de la botanique/Zinaïda_Botchantseva/Zinaïda_Botchantseva.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Zinaïda_Botchantseva/Zinaïda_Botchantseva.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Zina%C3%AFda_Botchantseva</t>
+          <t>Zinaïda_Botchantseva</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zinaïda Petrovna Botchantseva (en russe : Зинаида Петровна Бочанцева), née le 10 août 1907 à Almaty (Empire russe) et décédée le 17 août 1973 à Tachkent (Union soviétique), est une botaniste soviétique, spécialiste de biologie cellulaire et d'embryologie, docteur en biologie, qui fut professeur à l'université de Tachkent et directrice du département de biologie cellulaire et d'embryologie du jardin botanique de l'Académie des sciences de la république socialiste soviétique d'Ouzbékistan. Son abréviation en botanique, selon la translittération allemande, est Botschantz.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Zina%C3%AFda_Botchantseva</t>
+          <t>Zinaïda_Botchantseva</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Zinaïda Botchantseva participe entre 1930 et 1933 à plusieurs expéditions botaniques en Asie centrale soviétique. Elle étudie la morphologie végétale et s'intéresse à la cytologie et à la biologie des plantes sauvages et en particulier des tulipes. Elle est l'auteur de plus d'une cinquantaine de publications à ce sujet. Sa thèse de doctorat en 1960 s'intitule Morphologie, cytologie et biologie des tulipes. Elle donne lieu à la publication d'une monographie du même titre en 1962 et traduite en anglais en 1982. Elle décrit en particulier les tulipes suivantes :
 Tulipa vvedenskyi Botschantz. Tulipe de Vvedenski
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Zina%C3%AFda_Botchantseva</t>
+          <t>Zinaïda_Botchantseva</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ordre de Lénine
 Ordre du Drapeau rouge du Travail
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Zina%C3%AFda_Botchantseva</t>
+          <t>Zinaïda_Botchantseva</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,10 +599,12 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Des tulipes de Tchimgan sont nommées en son honneur:
-Tulipe de Zinaïda (ou de Zénaïde): Tulipa zenaidae Vved[1]
+Tulipe de Zinaïda (ou de Zénaïde): Tulipa zenaidae Vved
 Tulipe de Botchantseva: Tulipa botschantzevae S.N.Abramova &amp; Zakalyabina
 Ainsi que d'autres plantes:
 (Asphodelaceae) Eremurus zenaidae Vved.
@@ -602,7 +620,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Zina%C3%AFda_Botchantseva</t>
+          <t>Zinaïda_Botchantseva</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,7 +638,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>К вопросу о стадийном развитии многолетних растений. // Труды Института ботаники АН Узбекской ССР, том 1, 1952.
 Тюльпаны и их культура в Ташкенте. [Les tulipes et leur culture à Tachkent] Реферат работ АН УзССР, внедряемых в народное хозяйство. — Ташкент: Изд. АН УзССР, 1955.
